--- a/Assets/Scripts/Data/Data.xlsx
+++ b/Assets/Scripts/Data/Data.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="MonsterData" sheetId="1" r:id="rId1"/>
+    <sheet name="Monster" sheetId="1" r:id="rId1"/>
+    <sheet name="Weapons" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,6 +30,42 @@
   </si>
   <si>
     <t>Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpgradeCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isUnlocked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Branch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlowerBranch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WoodSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JustSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpgradeCost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -410,4 +447,109 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assets/Scripts/Data/Data.xlsx
+++ b/Assets/Scripts/Data/Data.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="1" r:id="rId1"/>
     <sheet name="Weapons" sheetId="2" r:id="rId2"/>
+    <sheet name="Notes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,23 +50,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Branch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FlowerBranch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WoodSword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JustSword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UpgradeCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나뭇가지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃핀 나뭇가지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보자의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SongName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitObjects</t>
+  </si>
+  <si>
+    <t>256,188,18095,5,8,0:0:0:0:
+256,188,19999,1,8,0:0:0:0:
+256,188,21904,1,8,0:0:0:0:
+256,188,23809,1,8,0:0:0:0:
+72,192,25714,6,10,B|400:192|380:148|64:280|64:364|432:340,1,640,8|8,0:0|0:0,0:0:0:0:
+464,192,29523,2,2,B|16:192|464:88|44:52|80:364|456:340,1,640,0|8,0:0|0:0,0:0:0:0:
+248,160,33333,5,8,0:0:0:0:
+372,184,33809,2,2,P|208:300|120:188,1,320,0|0,0:0|0:0,0:0:0:0:
+248,160,35238,1,8,0:0:0:0:
+372,184,35714,2,2,P|208:300|120:188,1,320,0|0,0:0|0:0,0:0:0:0:
+152,120,37142,5,8,0:0:0:0:
+48,196,37619,2,2,P|132:12|256:48,1,320,0|0,0:0|0:0,0:0:0:0:
+152,120,39047,1,8,0:0:0:0:
+48,196,39523,2,2,P|132:12|256:48,1,320,0|0,0:0|0:0,0:0:0:0:
+256,192,40952,12,4,46666,0:0:0:0:
+112,188,48571,6,2,B|344:192|384:220|368:320,1,320,0|8,0:0|0:0,0:0:0:0:
+244,76,50476,2,0,B|464:76|416:164|368:240,2,160,0|8|4,0:0|0:0|0:0,0:0:0:0:
+408,272,52380,6,2,B|100:144|348:88|492:192,1,320,0|8,0:0|0:0,0:0:0:0:
+128,176,54285,2,2,B|360:360|192:388|164:376,2,160,0|8|4,0:0|0:0|0:0,0:0:0:0:
+360,64,56190,6,2,L|360:296,1,160,0|8,0:0|0:0,0:0:0:0:
+232,220,57142,2,2,L|232:20,1,160,0|8,0:0|0:0,0:0:0:0:
+104,60,58095,2,2,B|100:368|100:368|100:264,1,320,0|4,0:0|0:0,0:0:0:0:
+356,328,59999,6,2,L|104:328,1,160,0|8,0:0|0:0,0:0:0:0:
+196,200,60952,2,2,L|400:200,1,160,0|8,0:0|0:0,0:0:0:0:
+256,192,61904,12,4,63333,0:0:0:0:
+180,188,63809,6,2,B|236:192|236:192|236:40,1,160,0|8,0:0|0:0,0:0:0:0:
+360,116,64761,2,2,B|364:260|232:212|360:132|360:132|368:144,1,160,0|8,0:0|0:0,0:0:0:0:
+188,160,65714,2,2,P|56:284|28:296,2,160,0|8|4,0:0|0:0|0:0,0:0:0:0:
+444,144,67619,6,6,P|232:192|216:176,1,160,0|8,0:0|0:0,0:0:0:0:
+208,152,68571,2,2,P|404:68|424:88,1,160,0|8,0:0|0:0,0:0:0:0:
+280,168,69523,2,2,L|244:352,2,160,0|8|4,0:0|0:0|0:0,0:0:0:0:
+68,312,71428,5,8,0:0:0:0:
+276,160,72380,1,8,0:0:0:0:
+48,44,73333,2,2,L|228:176,2,160,0|8|4,0:0|0:0|0:0,0:0:0:0:
+60,300,75238,1,8,0:0:0:0:
+280,168,76190,1,8,0:0:0:0:
+488,20,77142,2,2,L|260:184,2,160,0|8|4,0:0|0:0|0:0,0:0:0:0:
+256,192,78571,12,4,80952,0:0:0:0:
+80,240,94285,6,2,B|448:236|432:200|76:40|480:60|472:364,1,640,0|8,0:0|0:0,0:0:0:0:
+68,48,98095,2,2,B|392:120|56:160|80:336|460:296|456:16,1,640,0|8,0:0|0:0,0:0:0:0:
+40,344,101904,1,8,0:0:0:0:
+460,332,103809,1,8,0:0:0:0:
+460,48,105714,1,8,0:0:0:0:
+52,52,107619,1,8,0:0:0:0:
+472,344,109523,2,2,B|168:112|180:124,1,320,2|10,0:0|0:0,0:0:0:0:
+44,344,111428,2,2,L|296:112,1,320,0|8,0:0|0:0,0:0:0:0:
+40,40,113333,2,2,L|336:252,1,320,0|8,0:0|0:0,0:0:0:0:
+508,376,115238,2,2,L|164:136,1,320,0|8,0:0|0:0,0:0:0:0:
+256,192,117142,12,4,122857,0:0:0:0:
+56,52,124761,6,2,B|216:48|216:48|216:236,1,320,0|8,0:0|0:0,0:0:0:0:
+432,72,126666,2,2,B|332:136|332:136|292:36,2,160,0|8|4,0:0|0:0|0:0,0:0:0:0:
+348,312,128571,2,2,B|224:316|224:316|56:164,1,320,0|8,0:0|0:0,0:0:0:0:
+336,184,130476,2,2,P|148:160|128:180,2,160,0|8|4,0:0|0:0|0:0,0:0:0:0:
+80,176,132380,2,2,P|212:52|220:48,1,160,0|8,0:0|0:0,0:0:0:0:
+196,192,133333,2,2,P|316:68|348:80,1,160,0|8,0:0|0:0,0:0:0:0:
+320,188,134285,2,2,B|160:336|268:236,2,160,0|8|4,0:0|0:0|0:0,0:0:0:0:
+100,60,136190,2,2,P|228:164|188:244,1,160,0|8,0:0|0:0,0:0:0:0:
+304,36,137142,2,2,B|420:160|376:188|296:288,1,160,0|8,0:0|0:0,0:0:0:0:
+256,192,138095,12,4,139523,0:0:0:0:
+96,72,139999,6,2,B|280:188|220:244|64:300,1,320,0|8,0:0|0:0,0:0:0:0:
+344,196,141904,2,2,B|120:180|180:172,2,160,0|8|4,0:0|0:0|0:0,0:0:0:0:
+120,72,143809,2,2,P|112:328|84:344,1,320,0|8,0:0|0:0,0:0:0:0:
+308,200,145714,2,2,L|176:312,2,160,0|8|4,0:0|0:0|0:0,0:0:0:0:
+60,260,147619,2,2,L|60:72,1,160,0|8,0:0|0:0,0:0:0:0:
+184,72,148571,2,2,L|184:264,1,160,0|8,0:0|0:0,0:0:0:0:
+440,224,149523,6,2,B|252:228|320:120|348:336,2,160,0|8|4,0:0|0:0|0:0,0:0:0:0:
+184,256,151428,2,2,P|88:104|72:104,1,160,0|8,0:0|0:0,0:0:0:0:
+260,96,152380,2,2,P|396:232|392:260,1,160,0|8,0:0|0:0,0:0:0:0:
+256,192,153333,12,4,155238,0:0:0:0:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So_Happy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -109,8 +193,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -415,7 +502,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -439,7 +526,7 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
@@ -453,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -473,7 +560,7 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
@@ -484,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -493,7 +580,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -501,7 +588,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -518,7 +605,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -535,7 +622,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -545,6 +632,42 @@
       </c>
       <c r="E5" t="b">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="15" width="30.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Scripts/Data/Data.xlsx
+++ b/Assets/Scripts/Data/Data.xlsx
@@ -75,6 +75,10 @@
   </si>
   <si>
     <t>HitObjects</t>
+  </si>
+  <si>
+    <t>So_Happy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>256,188,18095,5,8,0:0:0:0:
@@ -146,10 +150,6 @@
 184,256,151428,2,2,P|88:104|72:104,1,160,0|8,0:0|0:0,0:0:0:0:
 260,96,152380,2,2,P|396:232|392:260,1,160,0|8,0:0|0:0,0:0:0:0:
 256,192,153333,12,4,155238,0:0:0:0:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>So_Happy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,7 +646,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" activeCellId="1" sqref="D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -664,10 +664,10 @@
     </row>
     <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Scripts/Data/Data.xlsx
+++ b/Assets/Scripts/Data/Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,82 +74,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HitObjects</t>
-  </si>
-  <si>
     <t>So_Happy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>256,188,18095,5,8,0:0:0:0:
-256,188,19999,1,8,0:0:0:0:
-256,188,21904,1,8,0:0:0:0:
-256,188,23809,1,8,0:0:0:0:
-72,192,25714,6,10,B|400:192|380:148|64:280|64:364|432:340,1,640,8|8,0:0|0:0,0:0:0:0:
-464,192,29523,2,2,B|16:192|464:88|44:52|80:364|456:340,1,640,0|8,0:0|0:0,0:0:0:0:
-248,160,33333,5,8,0:0:0:0:
-372,184,33809,2,2,P|208:300|120:188,1,320,0|0,0:0|0:0,0:0:0:0:
-248,160,35238,1,8,0:0:0:0:
-372,184,35714,2,2,P|208:300|120:188,1,320,0|0,0:0|0:0,0:0:0:0:
-152,120,37142,5,8,0:0:0:0:
-48,196,37619,2,2,P|132:12|256:48,1,320,0|0,0:0|0:0,0:0:0:0:
-152,120,39047,1,8,0:0:0:0:
-48,196,39523,2,2,P|132:12|256:48,1,320,0|0,0:0|0:0,0:0:0:0:
-256,192,40952,12,4,46666,0:0:0:0:
-112,188,48571,6,2,B|344:192|384:220|368:320,1,320,0|8,0:0|0:0,0:0:0:0:
-244,76,50476,2,0,B|464:76|416:164|368:240,2,160,0|8|4,0:0|0:0|0:0,0:0:0:0:
-408,272,52380,6,2,B|100:144|348:88|492:192,1,320,0|8,0:0|0:0,0:0:0:0:
-128,176,54285,2,2,B|360:360|192:388|164:376,2,160,0|8|4,0:0|0:0|0:0,0:0:0:0:
-360,64,56190,6,2,L|360:296,1,160,0|8,0:0|0:0,0:0:0:0:
-232,220,57142,2,2,L|232:20,1,160,0|8,0:0|0:0,0:0:0:0:
-104,60,58095,2,2,B|100:368|100:368|100:264,1,320,0|4,0:0|0:0,0:0:0:0:
-356,328,59999,6,2,L|104:328,1,160,0|8,0:0|0:0,0:0:0:0:
-196,200,60952,2,2,L|400:200,1,160,0|8,0:0|0:0,0:0:0:0:
-256,192,61904,12,4,63333,0:0:0:0:
-180,188,63809,6,2,B|236:192|236:192|236:40,1,160,0|8,0:0|0:0,0:0:0:0:
-360,116,64761,2,2,B|364:260|232:212|360:132|360:132|368:144,1,160,0|8,0:0|0:0,0:0:0:0:
-188,160,65714,2,2,P|56:284|28:296,2,160,0|8|4,0:0|0:0|0:0,0:0:0:0:
-444,144,67619,6,6,P|232:192|216:176,1,160,0|8,0:0|0:0,0:0:0:0:
-208,152,68571,2,2,P|404:68|424:88,1,160,0|8,0:0|0:0,0:0:0:0:
-280,168,69523,2,2,L|244:352,2,160,0|8|4,0:0|0:0|0:0,0:0:0:0:
-68,312,71428,5,8,0:0:0:0:
-276,160,72380,1,8,0:0:0:0:
-48,44,73333,2,2,L|228:176,2,160,0|8|4,0:0|0:0|0:0,0:0:0:0:
-60,300,75238,1,8,0:0:0:0:
-280,168,76190,1,8,0:0:0:0:
-488,20,77142,2,2,L|260:184,2,160,0|8|4,0:0|0:0|0:0,0:0:0:0:
-256,192,78571,12,4,80952,0:0:0:0:
-80,240,94285,6,2,B|448:236|432:200|76:40|480:60|472:364,1,640,0|8,0:0|0:0,0:0:0:0:
-68,48,98095,2,2,B|392:120|56:160|80:336|460:296|456:16,1,640,0|8,0:0|0:0,0:0:0:0:
-40,344,101904,1,8,0:0:0:0:
-460,332,103809,1,8,0:0:0:0:
-460,48,105714,1,8,0:0:0:0:
-52,52,107619,1,8,0:0:0:0:
-472,344,109523,2,2,B|168:112|180:124,1,320,2|10,0:0|0:0,0:0:0:0:
-44,344,111428,2,2,L|296:112,1,320,0|8,0:0|0:0,0:0:0:0:
-40,40,113333,2,2,L|336:252,1,320,0|8,0:0|0:0,0:0:0:0:
-508,376,115238,2,2,L|164:136,1,320,0|8,0:0|0:0,0:0:0:0:
-256,192,117142,12,4,122857,0:0:0:0:
-56,52,124761,6,2,B|216:48|216:48|216:236,1,320,0|8,0:0|0:0,0:0:0:0:
-432,72,126666,2,2,B|332:136|332:136|292:36,2,160,0|8|4,0:0|0:0|0:0,0:0:0:0:
-348,312,128571,2,2,B|224:316|224:316|56:164,1,320,0|8,0:0|0:0,0:0:0:0:
-336,184,130476,2,2,P|148:160|128:180,2,160,0|8|4,0:0|0:0|0:0,0:0:0:0:
-80,176,132380,2,2,P|212:52|220:48,1,160,0|8,0:0|0:0,0:0:0:0:
-196,192,133333,2,2,P|316:68|348:80,1,160,0|8,0:0|0:0,0:0:0:0:
-320,188,134285,2,2,B|160:336|268:236,2,160,0|8|4,0:0|0:0|0:0,0:0:0:0:
-100,60,136190,2,2,P|228:164|188:244,1,160,0|8,0:0|0:0,0:0:0:0:
-304,36,137142,2,2,B|420:160|376:188|296:288,1,160,0|8,0:0|0:0,0:0:0:0:
-256,192,138095,12,4,139523,0:0:0:0:
-96,72,139999,6,2,B|280:188|220:244|64:300,1,320,0|8,0:0|0:0,0:0:0:0:
-344,196,141904,2,2,B|120:180|180:172,2,160,0|8|4,0:0|0:0|0:0,0:0:0:0:
-120,72,143809,2,2,P|112:328|84:344,1,320,0|8,0:0|0:0,0:0:0:0:
-308,200,145714,2,2,L|176:312,2,160,0|8|4,0:0|0:0|0:0,0:0:0:0:
-60,260,147619,2,2,L|60:72,1,160,0|8,0:0|0:0,0:0:0:0:
-184,72,148571,2,2,L|184:264,1,160,0|8,0:0|0:0,0:0:0:0:
-440,224,149523,6,2,B|252:228|320:120|348:336,2,160,0|8|4,0:0|0:0|0:0,0:0:0:0:
-184,256,151428,2,2,P|88:104|72:104,1,160,0|8,0:0|0:0,0:0:0:0:
-260,96,152380,2,2,P|396:232|392:260,1,160,0|8,0:0|0:0,0:0:0:0:
-256,192,153333,12,4,155238,0:0:0:0:</t>
+    <t>DataPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notes/So_Happy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Faded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notes/Faded</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -643,10 +584,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" activeCellId="1" sqref="D2 C2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -659,15 +600,23 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Scripts/Data/Data.xlsx
+++ b/Assets/Scripts/Data/Data.xlsx
@@ -587,7 +587,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -605,21 +605,24 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B2">
+    <sortCondition ref="B2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Assets/Scripts/Data/Data.xlsx
+++ b/Assets/Scripts/Data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="1" r:id="rId1"/>
@@ -443,7 +443,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -467,7 +467,7 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>3000</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>1250</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Scripts/Data/Data.xlsx
+++ b/Assets/Scripts/Data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,14 @@
   </si>
   <si>
     <t>Notes/Faded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담금질된 초보자의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skeleton1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -468,6 +476,17 @@
       </c>
       <c r="C2">
         <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -479,9 +498,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -572,6 +591,23 @@
         <v>1250</v>
       </c>
       <c r="E5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>6000</v>
+      </c>
+      <c r="E6" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Scripts/Data/Data.xlsx
+++ b/Assets/Scripts/Data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,35 @@
   <si>
     <t>Skeleton1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skeleton2</t>
+  </si>
+  <si>
+    <t>Skeleton3</t>
+  </si>
+  <si>
+    <t>검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skeleton4</t>
+  </si>
+  <si>
+    <t>Skeleton5</t>
+  </si>
+  <si>
+    <t>Skeleton6</t>
+  </si>
+  <si>
+    <t>Skeleton7</t>
+  </si>
+  <si>
+    <t>Assets/Resources/Notes/TUYU_-_Rock_na_Kimi_to_wa_Owakare_da_Seros_Irins_Normal.osu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mino</t>
   </si>
 </sst>
 </file>
@@ -448,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -472,10 +501,10 @@
         <v>2</v>
       </c>
       <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
         <v>100</v>
-      </c>
-      <c r="C2">
-        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -483,10 +512,76 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C3">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>150</v>
+      </c>
+      <c r="C4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+      <c r="C5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>250</v>
+      </c>
+      <c r="C6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>300</v>
+      </c>
+      <c r="C7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>350</v>
+      </c>
+      <c r="C8">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>400</v>
+      </c>
+      <c r="C9">
+        <v>7000</v>
       </c>
     </row>
   </sheetData>
@@ -498,10 +593,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -611,6 +706,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>12000</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -620,10 +732,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -655,6 +767,14 @@
         <v>16</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="B2">
     <sortCondition ref="B2"/>

--- a/Assets/Scripts/Data/Data.xlsx
+++ b/Assets/Scripts/Data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,10 +26,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Skeleton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,37 +94,72 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Skeleton1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skeleton2</t>
-  </si>
-  <si>
-    <t>Skeleton3</t>
-  </si>
-  <si>
     <t>검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Skeleton4</t>
-  </si>
-  <si>
-    <t>Skeleton5</t>
-  </si>
-  <si>
-    <t>Skeleton6</t>
-  </si>
-  <si>
-    <t>Skeleton7</t>
-  </si>
-  <si>
-    <t>Assets/Resources/Notes/TUYU_-_Rock_na_Kimi_to_wa_Owakare_da_Seros_Irins_Normal.osu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mino</t>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해골 병사 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해골 병사 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해골 병사 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해골 병사 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해골 병사 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해골 병사 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해골 병사 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해골 병사 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image_Path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponImages/06_검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponImages/05_담금질된 초보자의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponImages/04_초보자의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponImages/03_목검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponImages/02_꽃핀 나뭇가지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponImages/01_나뭇가지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -480,10 +511,13 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -493,12 +527,12 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -509,7 +543,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -520,7 +554,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>150</v>
@@ -531,7 +565,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -542,7 +576,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>250</v>
@@ -553,7 +587,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>300</v>
@@ -564,7 +598,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>350</v>
@@ -575,7 +609,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>400</v>
@@ -593,10 +627,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -604,122 +638,143 @@
     <col min="1" max="7" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>10</v>
       </c>
-      <c r="E2" t="b">
+      <c r="F2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>50</v>
       </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>250</v>
       </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>1250</v>
       </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>6000</v>
       </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>12000</v>
       </c>
-      <c r="E7" t="b">
+      <c r="F7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -734,7 +789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -745,34 +800,31 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Scripts/Data/Data.xlsx
+++ b/Assets/Scripts/Data/Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Image_Path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponImages/05_담금질된 초보자의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponImages/04_초보자의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponImages/03_목검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponImages/02_꽃핀 나뭇가지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponImages/01_나뭇가지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponImages/06_검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponImages/07_담금질된 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담금질된 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>해골 병사 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,47 +170,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>해골 병사 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해골 병사 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해골 병사 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해골 병사 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image_Path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeaponImages/06_검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeaponImages/05_담금질된 초보자의 검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeaponImages/04_초보자의 검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeaponImages/03_목검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeaponImages/02_꽃핀 나뭇가지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeaponImages/01_나뭇가지</t>
+    <t>AnimatorControllerPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controllers/01.SlimeController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controllers/02.SkeletonController</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,114 +532,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2">
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2">
         <v>50</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3">
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3">
         <v>100</v>
       </c>
-      <c r="C3">
+      <c r="D3">
+        <v>200</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>150</v>
+      </c>
+      <c r="D4">
+        <v>400</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>800</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>250</v>
+      </c>
+      <c r="D6">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4">
-        <v>150</v>
-      </c>
-      <c r="C4">
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>300</v>
+      </c>
+      <c r="D7">
         <v>2000</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5">
-        <v>200</v>
-      </c>
-      <c r="C5">
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>350</v>
+      </c>
+      <c r="D8">
         <v>3000</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6">
-        <v>250</v>
-      </c>
-      <c r="C6">
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <v>400</v>
+      </c>
+      <c r="D9">
         <v>4000</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7">
-        <v>300</v>
-      </c>
-      <c r="C7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8">
-        <v>350</v>
-      </c>
-      <c r="C8">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9">
-        <v>400</v>
-      </c>
-      <c r="C9">
-        <v>7000</v>
+      <c r="E9" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -627,10 +709,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -643,7 +725,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -663,13 +745,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -683,13 +765,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -703,13 +785,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>250</v>
@@ -723,13 +805,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>1250</v>
@@ -743,13 +825,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>6000</v>
@@ -763,18 +845,38 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>30000</v>
+      </c>
+      <c r="F7" t="b">
         <v>0</v>
       </c>
-      <c r="E7">
-        <v>12000</v>
-      </c>
-      <c r="F7" t="b">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>150000</v>
+      </c>
+      <c r="F8" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Scripts/Data/Data.xlsx
+++ b/Assets/Scripts/Data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,107 +82,126 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Notes/Faded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담금질된 초보자의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image_Path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponImages/05_담금질된 초보자의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponImages/04_초보자의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponImages/03_목검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponImages/02_꽃핀 나뭇가지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponImages/01_나뭇가지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponImages/06_검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponImages/07_담금질된 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담금질된 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해골 병사 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해골 병사 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해골 병사 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해골 병사 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimatorControllerPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controllers/01.SlimeController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controllers/02.SkeletonController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거대 슬라임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대형 해골병사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DJ 흑마법사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Faded</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Notes/Faded</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>담금질된 초보자의 검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image_Path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeaponImages/05_담금질된 초보자의 검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeaponImages/04_초보자의 검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeaponImages/03_목검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeaponImages/02_꽃핀 나뭇가지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeaponImages/01_나뭇가지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeaponImages/06_검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeaponImages/07_담금질된 검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>담금질된 검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬라임 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬라임 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬라임 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬라임 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해골 병사 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해골 병사 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해골 병사 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해골 병사 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnimatorControllerPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Controllers/01.SlimeController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Controllers/02.SkeletonController</t>
+  </si>
+  <si>
+    <t>Cloud_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notes/Cloud_9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,7 +554,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -549,7 +568,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -561,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -569,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -578,7 +597,7 @@
         <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -586,7 +605,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -595,7 +614,7 @@
         <v>200</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -603,7 +622,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>150</v>
@@ -612,7 +631,7 @@
         <v>400</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -620,7 +639,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>200</v>
@@ -629,7 +648,7 @@
         <v>800</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -637,16 +656,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>250</v>
       </c>
       <c r="D6">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -654,16 +673,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7">
         <v>300</v>
       </c>
       <c r="D7">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -671,16 +690,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <v>350</v>
       </c>
       <c r="D8">
-        <v>3000</v>
+        <v>6400</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -688,16 +707,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>400</v>
       </c>
       <c r="D9">
-        <v>4000</v>
+        <v>12800</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -711,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -725,7 +744,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -745,7 +764,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -765,7 +784,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -785,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -805,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -825,10 +844,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -845,10 +864,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -865,10 +884,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -889,10 +908,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -900,38 +919,53 @@
     <col min="1" max="15" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2">
-    <sortCondition ref="B2"/>
+  <sortState ref="C3">
+    <sortCondition ref="C2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Scripts/Data/Data.xlsx
+++ b/Assets/Scripts/Data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="1" r:id="rId1"/>
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -910,7 +910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
